--- a/Sufficient data WITH_PO/B091HTG6DQ_Optuna_PO_Forecast.xlsx
+++ b/Sufficient data WITH_PO/B091HTG6DQ_Optuna_PO_Forecast.xlsx
@@ -454,7 +454,7 @@
         <v>44941.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>181</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         <v>44948.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>202</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4">
@@ -470,7 +470,7 @@
         <v>44955.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>223</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5">
@@ -478,7 +478,7 @@
         <v>44962.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>244</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6">
@@ -486,7 +486,7 @@
         <v>44976.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>286</v>
+        <v>373</v>
       </c>
     </row>
     <row r="7">
@@ -494,7 +494,7 @@
         <v>44990.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>328</v>
+        <v>414</v>
       </c>
     </row>
     <row r="8">
@@ -502,7 +502,7 @@
         <v>44997.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>348</v>
+        <v>434</v>
       </c>
     </row>
     <row r="9">
@@ -510,7 +510,7 @@
         <v>45004.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>369</v>
+        <v>454</v>
       </c>
     </row>
     <row r="10">
@@ -518,7 +518,7 @@
         <v>45018.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>411</v>
+        <v>494</v>
       </c>
     </row>
     <row r="11">
@@ -526,7 +526,7 @@
         <v>45025.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>432</v>
+        <v>514</v>
       </c>
     </row>
     <row r="12">
@@ -534,7 +534,7 @@
         <v>45032.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>453</v>
+        <v>534</v>
       </c>
     </row>
     <row r="13">
@@ -542,7 +542,7 @@
         <v>45039.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>474</v>
+        <v>554</v>
       </c>
     </row>
     <row r="14">
@@ -550,7 +550,7 @@
         <v>45046.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>495</v>
+        <v>574</v>
       </c>
     </row>
     <row r="15">
@@ -558,7 +558,7 @@
         <v>45053.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>516</v>
+        <v>594</v>
       </c>
     </row>
     <row r="16">
@@ -566,7 +566,7 @@
         <v>45060.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>536</v>
+        <v>614</v>
       </c>
     </row>
     <row r="17">
@@ -574,7 +574,7 @@
         <v>45067.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>557</v>
+        <v>634</v>
       </c>
     </row>
     <row r="18">
@@ -582,7 +582,7 @@
         <v>45088.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>620</v>
+        <v>694</v>
       </c>
     </row>
     <row r="19">
@@ -590,7 +590,7 @@
         <v>45095.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>641</v>
+        <v>714</v>
       </c>
     </row>
     <row r="20">
@@ -598,7 +598,7 @@
         <v>45102.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>662</v>
+        <v>734</v>
       </c>
     </row>
     <row r="21">
@@ -606,7 +606,7 @@
         <v>45109.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>683</v>
+        <v>754</v>
       </c>
     </row>
     <row r="22">
@@ -614,7 +614,7 @@
         <v>45116.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>703</v>
+        <v>774</v>
       </c>
     </row>
     <row r="23">
@@ -622,7 +622,7 @@
         <v>45123.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>724</v>
+        <v>794</v>
       </c>
     </row>
     <row r="24">
@@ -630,7 +630,7 @@
         <v>45130.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>745</v>
+        <v>814</v>
       </c>
     </row>
     <row r="25">
@@ -638,7 +638,7 @@
         <v>45144.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>787</v>
+        <v>854</v>
       </c>
     </row>
     <row r="26">
@@ -646,7 +646,7 @@
         <v>45158.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>829</v>
+        <v>894</v>
       </c>
     </row>
     <row r="27">
@@ -654,7 +654,7 @@
         <v>45165.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>850</v>
+        <v>914</v>
       </c>
     </row>
     <row r="28">
@@ -662,7 +662,7 @@
         <v>45179.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>891</v>
+        <v>954</v>
       </c>
     </row>
     <row r="29">
@@ -670,7 +670,7 @@
         <v>45186.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>912</v>
+        <v>974</v>
       </c>
     </row>
     <row r="30">
@@ -678,7 +678,7 @@
         <v>45200.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>954</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="31">
@@ -686,7 +686,7 @@
         <v>45207.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>975</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="32">
@@ -694,7 +694,7 @@
         <v>45214.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>996</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="33">
@@ -702,7 +702,7 @@
         <v>45221.99999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>1017</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="34">
@@ -710,7 +710,7 @@
         <v>45249.99999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>1100</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="35">
@@ -718,7 +718,7 @@
         <v>45256.99999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>1121</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="36">
@@ -726,7 +726,7 @@
         <v>45263.99999999999</v>
       </c>
       <c r="B36" t="n">
-        <v>1142</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="37">
@@ -734,7 +734,7 @@
         <v>45270.99999999999</v>
       </c>
       <c r="B37" t="n">
-        <v>1163</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="38">
@@ -742,7 +742,7 @@
         <v>45277.99999999999</v>
       </c>
       <c r="B38" t="n">
-        <v>1184</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="39">
@@ -750,7 +750,7 @@
         <v>45298.99999999999</v>
       </c>
       <c r="B39" t="n">
-        <v>1246</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="40">
@@ -758,7 +758,7 @@
         <v>45305.99999999999</v>
       </c>
       <c r="B40" t="n">
-        <v>1267</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="41">
@@ -766,7 +766,7 @@
         <v>45312.99999999999</v>
       </c>
       <c r="B41" t="n">
-        <v>1288</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="42">
@@ -774,7 +774,7 @@
         <v>45319.99999999999</v>
       </c>
       <c r="B42" t="n">
-        <v>1309</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="43">
@@ -782,7 +782,7 @@
         <v>45326.99999999999</v>
       </c>
       <c r="B43" t="n">
-        <v>1330</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="44">
@@ -790,7 +790,7 @@
         <v>45333.99999999999</v>
       </c>
       <c r="B44" t="n">
-        <v>1351</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="45">
@@ -798,7 +798,7 @@
         <v>45340.99999999999</v>
       </c>
       <c r="B45" t="n">
-        <v>1372</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="46">
@@ -806,7 +806,7 @@
         <v>45347.99999999999</v>
       </c>
       <c r="B46" t="n">
-        <v>1393</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="47">
@@ -814,7 +814,7 @@
         <v>45354.99999999999</v>
       </c>
       <c r="B47" t="n">
-        <v>1414</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="48">
@@ -822,7 +822,7 @@
         <v>45361.99999999999</v>
       </c>
       <c r="B48" t="n">
-        <v>1434</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="49">
@@ -830,7 +830,7 @@
         <v>45368.99999999999</v>
       </c>
       <c r="B49" t="n">
-        <v>1455</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="50">
@@ -838,7 +838,7 @@
         <v>45375.99999999999</v>
       </c>
       <c r="B50" t="n">
-        <v>1476</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="51">
@@ -846,7 +846,7 @@
         <v>45382.99999999999</v>
       </c>
       <c r="B51" t="n">
-        <v>1497</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="52">
@@ -854,7 +854,7 @@
         <v>45389.99999999999</v>
       </c>
       <c r="B52" t="n">
-        <v>1518</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="53">
@@ -862,7 +862,7 @@
         <v>45396.99999999999</v>
       </c>
       <c r="B53" t="n">
-        <v>1539</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="54">
@@ -870,7 +870,7 @@
         <v>45403.99999999999</v>
       </c>
       <c r="B54" t="n">
-        <v>1560</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="55">
@@ -878,7 +878,7 @@
         <v>45410.99999999999</v>
       </c>
       <c r="B55" t="n">
-        <v>1581</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="56">
@@ -886,7 +886,7 @@
         <v>45417.99999999999</v>
       </c>
       <c r="B56" t="n">
-        <v>1602</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="57">
@@ -894,7 +894,7 @@
         <v>45424.99999999999</v>
       </c>
       <c r="B57" t="n">
-        <v>1622</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="58">
@@ -902,7 +902,7 @@
         <v>45431.99999999999</v>
       </c>
       <c r="B58" t="n">
-        <v>1643</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="59">
@@ -910,7 +910,7 @@
         <v>45438.99999999999</v>
       </c>
       <c r="B59" t="n">
-        <v>1664</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="60">
@@ -918,7 +918,7 @@
         <v>45445.99999999999</v>
       </c>
       <c r="B60" t="n">
-        <v>1685</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="61">
@@ -926,7 +926,7 @@
         <v>45452.99999999999</v>
       </c>
       <c r="B61" t="n">
-        <v>1706</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="62">
@@ -934,7 +934,7 @@
         <v>45459.99999999999</v>
       </c>
       <c r="B62" t="n">
-        <v>1727</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="63">
@@ -942,7 +942,7 @@
         <v>45466.99999999999</v>
       </c>
       <c r="B63" t="n">
-        <v>1748</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="64">
@@ -950,7 +950,7 @@
         <v>45473.99999999999</v>
       </c>
       <c r="B64" t="n">
-        <v>1769</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="65">
@@ -958,7 +958,7 @@
         <v>45487.99999999999</v>
       </c>
       <c r="B65" t="n">
-        <v>1810</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="66">
@@ -966,7 +966,7 @@
         <v>45494.99999999999</v>
       </c>
       <c r="B66" t="n">
-        <v>1831</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="67">
@@ -974,7 +974,7 @@
         <v>45501.99999999999</v>
       </c>
       <c r="B67" t="n">
-        <v>1852</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="68">
@@ -982,7 +982,7 @@
         <v>45508.99999999999</v>
       </c>
       <c r="B68" t="n">
-        <v>1873</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="69">
@@ -990,7 +990,7 @@
         <v>45515.99999999999</v>
       </c>
       <c r="B69" t="n">
-        <v>1894</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="70">
@@ -998,7 +998,7 @@
         <v>45522.99999999999</v>
       </c>
       <c r="B70" t="n">
-        <v>1915</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="71">
@@ -1006,7 +1006,7 @@
         <v>45529.99999999999</v>
       </c>
       <c r="B71" t="n">
-        <v>1936</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="72">
@@ -1014,7 +1014,7 @@
         <v>45550.99999999999</v>
       </c>
       <c r="B72" t="n">
-        <v>1998</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="73">
@@ -1022,7 +1022,7 @@
         <v>45557.99999999999</v>
       </c>
       <c r="B73" t="n">
-        <v>2019</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="74">
@@ -1030,7 +1030,7 @@
         <v>45564.99999999999</v>
       </c>
       <c r="B74" t="n">
-        <v>2040</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="75">
@@ -1038,7 +1038,7 @@
         <v>45571.99999999999</v>
       </c>
       <c r="B75" t="n">
-        <v>2061</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="76">
@@ -1046,7 +1046,7 @@
         <v>45578.99999999999</v>
       </c>
       <c r="B76" t="n">
-        <v>2082</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="77">
@@ -1054,7 +1054,7 @@
         <v>45585.99999999999</v>
       </c>
       <c r="B77" t="n">
-        <v>2103</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="78">
@@ -1062,7 +1062,7 @@
         <v>45599.99999999999</v>
       </c>
       <c r="B78" t="n">
-        <v>2145</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="79">
@@ -1070,7 +1070,7 @@
         <v>45669.99999999999</v>
       </c>
       <c r="B79" t="n">
-        <v>2353</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="80">
@@ -1078,7 +1078,7 @@
         <v>45676.99999999999</v>
       </c>
       <c r="B80" t="n">
-        <v>2374</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="81">
@@ -1094,7 +1094,7 @@
         <v>45690.99999999999</v>
       </c>
       <c r="B82" t="n">
-        <v>2416</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="83">
@@ -1102,7 +1102,7 @@
         <v>45697.99999999999</v>
       </c>
       <c r="B83" t="n">
-        <v>2437</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="84">
@@ -1110,7 +1110,7 @@
         <v>45704.99999999999</v>
       </c>
       <c r="B84" t="n">
-        <v>2458</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="85">
@@ -1118,7 +1118,7 @@
         <v>45711.99999999999</v>
       </c>
       <c r="B85" t="n">
-        <v>2479</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="86">
@@ -1126,7 +1126,7 @@
         <v>45718.99999999999</v>
       </c>
       <c r="B86" t="n">
-        <v>2500</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="87">
@@ -1134,7 +1134,7 @@
         <v>45725.99999999999</v>
       </c>
       <c r="B87" t="n">
-        <v>2520</v>
+        <v>2515</v>
       </c>
     </row>
   </sheetData>
